--- a/Examples/Data/Source/Spreadsheet Templates/In-Table List.xlsx
+++ b/Examples/Data/Source/Spreadsheet Templates/In-Table List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OfficeWork\Aspose\GroupDocs.Assembly\FinalExamples\Data\SourceFolder\ExcelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\GroupDocs_Assembly_NET\Examples\Data\Source\Spreadsheet Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,19 +32,19 @@
     <t>&lt;&lt;foreach [in customers]&gt;&gt;&lt;&lt;[CustomerName]&gt;&gt;</t>
   </si>
   <si>
+    <t>Customers</t>
+  </si>
+  <si>
     <t>&lt;&lt;[Order.Sum(
-  c =&gt; c.ProductQuantity)]&gt;&gt;&lt;&lt;/foreach&gt;&gt;</t>
+  c =&gt; c.Price)]&gt;&gt;&lt;&lt;/foreach&gt;&gt;</t>
   </si>
   <si>
     <t>&lt;&lt;[Sum(
   m =&gt; m.Order.Sum(
-    c =&gt; c.ProductQuantity))]&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Customers</t>
-  </si>
-  <si>
-    <t>Order Quantity</t>
+    c =&gt; c.Price))]&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Order Price</t>
   </si>
 </sst>
 </file>
@@ -450,18 +450,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
